--- a/CareerDescision/CareerDescision.xlsx
+++ b/CareerDescision/CareerDescision.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush\OneDrive\Desktop\karne hee\Data Analytics Learning\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d01c228b88324d2/Desktop/karne hee/Excel_projects/CareerDescision/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A04BC99-D546-4F1D-BA6B-C0E0792A4F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -473,7 +473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
@@ -609,7 +609,7 @@
         <v>4</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" ref="I5:K5" si="2">I$3*H5</f>
+        <f t="shared" ref="I5" si="2">I$3*H5</f>
         <v>12</v>
       </c>
       <c r="J5" s="4">
@@ -653,7 +653,7 @@
         <v>4</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" ref="I6:K6" si="6">I$3*H6</f>
+        <f t="shared" ref="I6" si="6">I$3*H6</f>
         <v>12</v>
       </c>
       <c r="J6" s="4">
@@ -697,7 +697,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" ref="I7:K7" si="9">I$3*H7</f>
+        <f t="shared" ref="I7" si="9">I$3*H7</f>
         <v>6</v>
       </c>
       <c r="J7" s="4">
@@ -741,7 +741,7 @@
         <v>3</v>
       </c>
       <c r="I8" s="2">
-        <f t="shared" ref="I8:K8" si="12">I$3*H8</f>
+        <f t="shared" ref="I8" si="12">I$3*H8</f>
         <v>9</v>
       </c>
       <c r="J8" s="4">
@@ -785,7 +785,7 @@
         <v>3</v>
       </c>
       <c r="I9" s="2">
-        <f t="shared" ref="I9:K9" si="15">I$3*H9</f>
+        <f t="shared" ref="I9" si="15">I$3*H9</f>
         <v>9</v>
       </c>
       <c r="J9" s="4">
